--- a/biology/Botanique/Haplochorema/Haplochorema.xlsx
+++ b/biology/Botanique/Haplochorema/Haplochorema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haplochorema est un petit genre de plantes de la famille des Zingiberaceae originaire de Bornéo.
-Karl Moritz Schumann en a fait la première description en 1899 dans le "Botanische Jahrbücher fur Systematik, Pflanzengeschichte und Pflanzengeographie" (Bot. Jahrb. Syst.) (vol 27 (1900), page 333)[1].
+Karl Moritz Schumann en a fait la première description en 1899 dans le "Botanische Jahrbücher fur Systematik, Pflanzengeschichte und Pflanzengeographie" (Bot. Jahrb. Syst.) (vol 27 (1900), page 333).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (18 juil. 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (18 juil. 2010) :
 Haplochorema decus-sylvae (Hallier f.) Valeton (1918)
 Haplochorema extensum K.Schum. (1899)
 Haplochorema latilabrum (Valeton) S.Sakai &amp; Nagam. (2006)
@@ -550,9 +564,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 sept. 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 sept. 2011) :
 Haplochorema gracilipes K.Schum., (1899) = Scaphochlamys gracilipes (K.Schum.) S.Sakai &amp; Nagam., (2006).
 Haplochorema oligospermum (K.Schum.) K.Schum. (1904) = Boesenbergia oligosperma (K.Schum.) R.M.Sm., (1980).
 Haplochorema petiolatum K.Schum. (1904) = Scaphochlamys petiolata (K.Schum.) R.M.Sm., (1987).
